--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>12229.61288253015</v>
+        <v>15776.03272459558</v>
       </c>
       <c r="R2">
-        <v>48918.45153012059</v>
+        <v>63104.1308983823</v>
       </c>
       <c r="S2">
-        <v>0.06244677206666837</v>
+        <v>0.1143117886344814</v>
       </c>
       <c r="T2">
-        <v>0.03581286464099696</v>
+        <v>0.07494894485229935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>1966.578523025399</v>
+        <v>2738.964147416413</v>
       </c>
       <c r="R3">
-        <v>11799.4711381524</v>
+        <v>16433.78488449848</v>
       </c>
       <c r="S3">
-        <v>0.01004173083466935</v>
+        <v>0.0198463007882049</v>
       </c>
       <c r="T3">
-        <v>0.008638312323639496</v>
+        <v>0.01951845021059314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>376.3380575164079</v>
+        <v>216.6225744183212</v>
       </c>
       <c r="R4">
-        <v>2258.028345098448</v>
+        <v>1299.735446509927</v>
       </c>
       <c r="S4">
-        <v>0.001921655012589228</v>
+        <v>0.001569628712911987</v>
       </c>
       <c r="T4">
-        <v>0.001653087147060514</v>
+        <v>0.001543699262096143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>465.8744842591514</v>
+        <v>1229.253724545294</v>
       </c>
       <c r="R5">
-        <v>1863.497937036605</v>
+        <v>4917.014898181175</v>
       </c>
       <c r="S5">
-        <v>0.00237884534937046</v>
+        <v>0.008907067726811709</v>
       </c>
       <c r="T5">
-        <v>0.001364254126825271</v>
+        <v>0.005839951730500142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>7493.760715689858</v>
+        <v>128.8585384821513</v>
       </c>
       <c r="R6">
-        <v>44962.56429413915</v>
+        <v>773.151230892908</v>
       </c>
       <c r="S6">
-        <v>0.03826459364084329</v>
+        <v>0.0009336979880724403</v>
       </c>
       <c r="T6">
-        <v>0.0329167865828021</v>
+        <v>0.0009182737824246843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>398.7326377971857</v>
+        <v>385.4390339220002</v>
       </c>
       <c r="R7">
-        <v>2392.395826783114</v>
+        <v>2312.634203532002</v>
       </c>
       <c r="S7">
-        <v>0.00203600607698965</v>
+        <v>0.002792858391354529</v>
       </c>
       <c r="T7">
-        <v>0.001751456663739954</v>
+        <v>0.002746721821796053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N8">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O8">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P8">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q8">
-        <v>3206.720086234205</v>
+        <v>2970.100090574961</v>
       </c>
       <c r="R8">
-        <v>19240.32051740523</v>
+        <v>17820.60054344976</v>
       </c>
       <c r="S8">
-        <v>0.01637413385281624</v>
+        <v>0.02152109213412922</v>
       </c>
       <c r="T8">
-        <v>0.01408570739233151</v>
+        <v>0.02116557487364288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P9">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q9">
         <v>515.6554758941527</v>
@@ -1013,10 +1013,10 @@
         <v>4640.899283047374</v>
       </c>
       <c r="S9">
-        <v>0.002633036734473445</v>
+        <v>0.003736395632390296</v>
       </c>
       <c r="T9">
-        <v>0.003397570704664243</v>
+        <v>0.005512008476755838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N10">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O10">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P10">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q10">
-        <v>98.67939564760412</v>
+        <v>40.78279622844344</v>
       </c>
       <c r="R10">
-        <v>888.1145608284371</v>
+        <v>367.045166055991</v>
       </c>
       <c r="S10">
-        <v>0.0005038761068623164</v>
+        <v>0.0002955086658207007</v>
       </c>
       <c r="T10">
-        <v>0.0006501826112190692</v>
+        <v>0.0004359405242951971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N11">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O11">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P11">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q11">
-        <v>122.1566929949092</v>
+        <v>231.427422999668</v>
       </c>
       <c r="R11">
-        <v>732.9401579694551</v>
+        <v>1388.564537998008</v>
       </c>
       <c r="S11">
-        <v>0.0006237557343101186</v>
+        <v>0.001676903384012152</v>
       </c>
       <c r="T11">
-        <v>0.0005365804894938038</v>
+        <v>0.001649201811365714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N12">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O12">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P12">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q12">
-        <v>1964.934887085641</v>
+        <v>24.25975931328489</v>
       </c>
       <c r="R12">
-        <v>17684.41398377077</v>
+        <v>218.337833819564</v>
       </c>
       <c r="S12">
-        <v>0.01003333811121387</v>
+        <v>0.0001757841484836743</v>
       </c>
       <c r="T12">
-        <v>0.0129466388335325</v>
+        <v>0.0002593204285225724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N13">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O13">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P13">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q13">
-        <v>104.5514662600549</v>
+        <v>72.56529759716288</v>
       </c>
       <c r="R13">
-        <v>940.9631963404939</v>
+        <v>653.087678374466</v>
       </c>
       <c r="S13">
-        <v>0.0005338600367395171</v>
+        <v>0.0005258019621240214</v>
       </c>
       <c r="T13">
-        <v>0.0006888727367413235</v>
+        <v>0.0007756739803456966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N14">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O14">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P14">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q14">
-        <v>33559.03185348776</v>
+        <v>29886.26474559294</v>
       </c>
       <c r="R14">
-        <v>201354.1911209266</v>
+        <v>179317.5884735577</v>
       </c>
       <c r="S14">
-        <v>0.1713589165137376</v>
+        <v>0.2165533273359734</v>
       </c>
       <c r="T14">
-        <v>0.147410029670933</v>
+        <v>0.2129759788815428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P15">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q15">
-        <v>5396.448107598682</v>
+        <v>5188.719437096162</v>
       </c>
       <c r="R15">
-        <v>48568.03296838814</v>
+        <v>46698.47493386545</v>
       </c>
       <c r="S15">
-        <v>0.02755530924664066</v>
+        <v>0.03759701884062661</v>
       </c>
       <c r="T15">
-        <v>0.03555632560252617</v>
+        <v>0.05546390343511551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N16">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O16">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P16">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q16">
-        <v>1032.701605617786</v>
+        <v>410.3718420185909</v>
       </c>
       <c r="R16">
-        <v>9294.314450560072</v>
+        <v>3693.346578167318</v>
       </c>
       <c r="S16">
-        <v>0.005273174416748539</v>
+        <v>0.002973519393962497</v>
       </c>
       <c r="T16">
-        <v>0.006804304202961541</v>
+        <v>0.004386597597758644</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N17">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O17">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P17">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q17">
-        <v>1278.396692287247</v>
+        <v>2328.709815237064</v>
       </c>
       <c r="R17">
-        <v>7670.38015372348</v>
+        <v>13972.25889142238</v>
       </c>
       <c r="S17">
-        <v>0.006527741116653263</v>
+        <v>0.01687363286052296</v>
       </c>
       <c r="T17">
-        <v>0.005615432982811165</v>
+        <v>0.01659488921258736</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N18">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O18">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P18">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q18">
-        <v>20563.4762911827</v>
+        <v>244.1108270397858</v>
       </c>
       <c r="R18">
-        <v>185071.2866206443</v>
+        <v>2196.997443358072</v>
       </c>
       <c r="S18">
-        <v>0.1050010927727875</v>
+        <v>0.001768806248763393</v>
       </c>
       <c r="T18">
-        <v>0.1354894263690923</v>
+        <v>0.00260937973281093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N19">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O19">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P19">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q19">
-        <v>1094.154117664318</v>
+        <v>730.1793303914296</v>
       </c>
       <c r="R19">
-        <v>9847.387058978864</v>
+        <v>6571.613973522867</v>
       </c>
       <c r="S19">
-        <v>0.005586962845667317</v>
+        <v>0.005290817199614551</v>
       </c>
       <c r="T19">
-        <v>0.007209204886495021</v>
+        <v>0.007805123472586982</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N20">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O20">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P20">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q20">
-        <v>3323.651503885832</v>
+        <v>4203.319327185181</v>
       </c>
       <c r="R20">
-        <v>13294.60601554333</v>
+        <v>16813.27730874073</v>
       </c>
       <c r="S20">
-        <v>0.01697120831916786</v>
+        <v>0.03045689362340877</v>
       </c>
       <c r="T20">
-        <v>0.009732890367489998</v>
+        <v>0.01996917437668932</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P21">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q21">
-        <v>534.458590663966</v>
+        <v>729.761476683158</v>
       </c>
       <c r="R21">
-        <v>3206.751543983796</v>
+        <v>4378.568860098948</v>
       </c>
       <c r="S21">
-        <v>0.00272904908036309</v>
+        <v>0.005287789467255347</v>
       </c>
       <c r="T21">
-        <v>0.002347640928725787</v>
+        <v>0.005200437932597594</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N22">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O22">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P22">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q22">
-        <v>102.2776896413997</v>
+        <v>57.71627567288033</v>
       </c>
       <c r="R22">
-        <v>613.6661378483981</v>
+        <v>346.297654037282</v>
       </c>
       <c r="S22">
-        <v>0.0005222496929290019</v>
+        <v>0.0004182072147455494</v>
       </c>
       <c r="T22">
-        <v>0.000449260793056707</v>
+        <v>0.0004112986488430703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N23">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O23">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P23">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q23">
-        <v>126.6110747006425</v>
+        <v>327.5187132656039</v>
       </c>
       <c r="R23">
-        <v>506.4442988025701</v>
+        <v>1310.074853062416</v>
       </c>
       <c r="S23">
-        <v>0.0006465006700450197</v>
+        <v>0.00237317268404784</v>
       </c>
       <c r="T23">
-        <v>0.0003707644161641833</v>
+        <v>0.001555979402880522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N24">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O24">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P24">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q24">
-        <v>2036.585238772521</v>
+        <v>34.33268647005466</v>
       </c>
       <c r="R24">
-        <v>12219.51143263513</v>
+        <v>205.996118820328</v>
       </c>
       <c r="S24">
-        <v>0.01039919868450141</v>
+        <v>0.0002487717202120229</v>
       </c>
       <c r="T24">
-        <v>0.008945820957693707</v>
+        <v>0.0002446621406467743</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N25">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O25">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P25">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q25">
-        <v>108.3638823233793</v>
+        <v>102.6952320027886</v>
       </c>
       <c r="R25">
-        <v>650.183293940276</v>
+        <v>616.1713920167319</v>
       </c>
       <c r="S25">
-        <v>0.0005533269715653783</v>
+        <v>0.0007441208990502234</v>
       </c>
       <c r="T25">
-        <v>0.0004759947539096449</v>
+        <v>0.0007318284084158179</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N26">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O26">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P26">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q26">
-        <v>10872.67798333948</v>
+        <v>33343.95953208352</v>
       </c>
       <c r="R26">
-        <v>65236.06790003688</v>
+        <v>200063.7571925011</v>
       </c>
       <c r="S26">
-        <v>0.05551799965391997</v>
+        <v>0.2416074890822049</v>
       </c>
       <c r="T26">
-        <v>0.04775888026579053</v>
+        <v>0.2376162588929493</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>125.450742</v>
       </c>
       <c r="O27">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P27">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q27">
-        <v>1748.37709216049</v>
+        <v>5789.02892036323</v>
       </c>
       <c r="R27">
-        <v>15735.39382944441</v>
+        <v>52101.26028326907</v>
       </c>
       <c r="S27">
-        <v>0.008927552066402165</v>
+        <v>0.04194681019593447</v>
       </c>
       <c r="T27">
-        <v>0.01151977447486638</v>
+        <v>0.06188080602828066</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N28">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O28">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P28">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q28">
-        <v>334.5815236798284</v>
+        <v>457.8498587847862</v>
       </c>
       <c r="R28">
-        <v>3011.233713118455</v>
+        <v>4120.648729063077</v>
       </c>
       <c r="S28">
-        <v>0.001708438063219402</v>
+        <v>0.003317541057209954</v>
       </c>
       <c r="T28">
-        <v>0.002204503658582017</v>
+        <v>0.0048941055039261</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N29">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O29">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P29">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q29">
-        <v>414.1834493583875</v>
+        <v>2598.130161203248</v>
       </c>
       <c r="R29">
-        <v>2485.100696150325</v>
+        <v>15588.78096721949</v>
       </c>
       <c r="S29">
-        <v>0.002114900913406402</v>
+        <v>0.01882582972646251</v>
       </c>
       <c r="T29">
-        <v>0.00181932526616628</v>
+        <v>0.01851483680059142</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N30">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O30">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P30">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q30">
-        <v>6662.291597331316</v>
+        <v>272.3532568371004</v>
       </c>
       <c r="R30">
-        <v>59960.62437598184</v>
+        <v>2451.179311533904</v>
       </c>
       <c r="S30">
-        <v>0.03401895127968725</v>
+        <v>0.001973448488157428</v>
       </c>
       <c r="T30">
-        <v>0.04389676405117819</v>
+        <v>0.002911272216696692</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N31">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O31">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P31">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q31">
-        <v>354.4913165983567</v>
+        <v>814.6575107659083</v>
       </c>
       <c r="R31">
-        <v>3190.42184938521</v>
+        <v>7331.917596893176</v>
       </c>
       <c r="S31">
-        <v>0.001810101322082971</v>
+        <v>0.005902938895086031</v>
       </c>
       <c r="T31">
-        <v>0.002335686070712183</v>
+        <v>0.008708138117234364</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H32">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I32">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J32">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N32">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O32">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P32">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q32">
-        <v>41254.92239398019</v>
+        <v>20155.52172666424</v>
       </c>
       <c r="R32">
-        <v>247529.5343638811</v>
+        <v>120933.1303599854</v>
       </c>
       <c r="S32">
-        <v>0.2106556241894701</v>
+        <v>0.1460451927083083</v>
       </c>
       <c r="T32">
-        <v>0.1812146834485222</v>
+        <v>0.1436326020044882</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H33">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I33">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J33">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>125.450742</v>
       </c>
       <c r="O33">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P33">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q33">
-        <v>6633.983031873047</v>
+        <v>3499.311414062822</v>
       </c>
       <c r="R33">
-        <v>59705.84728685742</v>
+        <v>31493.8027265654</v>
       </c>
       <c r="S33">
-        <v>0.03387440226152232</v>
+        <v>0.02535571228290742</v>
       </c>
       <c r="T33">
-        <v>0.04371024348233268</v>
+        <v>0.03740527363483672</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H34">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I34">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J34">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N34">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O34">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P34">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q34">
-        <v>1269.524841535996</v>
+        <v>276.7578567688563</v>
       </c>
       <c r="R34">
-        <v>11425.72357382396</v>
+        <v>2490.820710919707</v>
       </c>
       <c r="S34">
-        <v>0.006482439728375941</v>
+        <v>0.002005363843887728</v>
       </c>
       <c r="T34">
-        <v>0.00836469428151985</v>
+        <v>0.002958354412650217</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H35">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I35">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J35">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N35">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O35">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P35">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q35">
-        <v>1571.563701816091</v>
+        <v>1570.499414217636</v>
       </c>
       <c r="R35">
-        <v>9429.382210896545</v>
+        <v>9422.996485305815</v>
       </c>
       <c r="S35">
-        <v>0.008024708649261457</v>
+        <v>0.01137970491204248</v>
       </c>
       <c r="T35">
-        <v>0.006903186388864631</v>
+        <v>0.01119171809937249</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H36">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I36">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J36">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N36">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O36">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P36">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q36">
-        <v>25279.17438878756</v>
+        <v>164.6301777755586</v>
       </c>
       <c r="R36">
-        <v>227512.569499088</v>
+        <v>1481.671599980028</v>
       </c>
       <c r="S36">
-        <v>0.1290803606175624</v>
+        <v>0.001192896237809952</v>
       </c>
       <c r="T36">
-        <v>0.1665604000277759</v>
+        <v>0.001759785317619643</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H37">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I37">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J37">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N37">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O37">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P37">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q37">
-        <v>1345.069887843145</v>
+        <v>492.4384322813646</v>
       </c>
       <c r="R37">
-        <v>12105.62899058831</v>
+        <v>4431.945890532282</v>
       </c>
       <c r="S37">
-        <v>0.006868187366737201</v>
+        <v>0.003568166913008593</v>
       </c>
       <c r="T37">
-        <v>0.008862448398783135</v>
+        <v>0.005263833974241359</v>
       </c>
     </row>
   </sheetData>
